--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva D\Desktop\Verklegt námskeið 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silfajonsdottir/Desktop/Verklegt_namskeid_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23014625-19E4-4DA2-AA89-EC7F9980885E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9434D1D-0EB7-7B41-85F5-3953D77A02ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFDD6A80-C2BA-4290-A4EB-5E8AD920BFD6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{EFDD6A80-C2BA-4290-A4EB-5E8AD920BFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,18 +486,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,13 +542,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -565,7 +565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -576,13 +576,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -593,13 +593,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -610,7 +610,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silfajonsdottir/Desktop/Verklegt_namskeid_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva D\Desktop\Verklegt námskeið 1\Verklegt_namskeid_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9434D1D-0EB7-7B41-85F5-3953D77A02ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0AB063-EA30-4C5F-A126-7722249749BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{EFDD6A80-C2BA-4290-A4EB-5E8AD920BFD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFDD6A80-C2BA-4290-A4EB-5E8AD920BFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,18 +486,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -548,7 +548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -565,7 +565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
